--- a/experiment result/64_0.3_40_zs10_kappa_lp.xlsx
+++ b/experiment result/64_0.3_40_zs10_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0640676532714978</v>
+        <v>0.01833999337071043</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09629353191669106</v>
+        <v>0.008889928843947084</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1056115791609029</v>
+        <v>0.01445471232459909</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07304285768953482</v>
+        <v>0.02659321770653444</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06615057044137487</v>
+        <v>0.00860821139378613</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07399457205139032</v>
+        <v>0.02654492991809688</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09357892385762887</v>
+        <v>0.005009741632930096</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06321874917093598</v>
+        <v>0.02532350109938901</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06016391608080468</v>
+        <v>0.01911496105183794</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1019885014577298</v>
+        <v>0.01547343810915678</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1048763664966363</v>
+        <v>0.03135717907351929</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1340045598448968</v>
+        <v>0.04825884725615853</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08617706341564599</v>
+        <v>0.009788198646039015</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1377490746638827</v>
+        <v>0.02137150242761627</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07369642282500247</v>
+        <v>0.01164675431845141</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1142320621887181</v>
+        <v>0.015495970099181</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.101971415463329</v>
+        <v>0.02701717251611462</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06671593127382329</v>
+        <v>0.000908310694590086</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07116722551152092</v>
+        <v>0.0235318496944869</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09575775496365552</v>
+        <v>0.01512122336402959</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07861249830625128</v>
+        <v>0.01093392672539437</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07542565290375329</v>
+        <v>0.005087155197463994</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06819162539458842</v>
+        <v>0.01411164282940663</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04726037783281652</v>
+        <v>0.01096039868069464</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.04980136084487406</v>
+        <v>0.005890413993817059</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.08189088567152807</v>
+        <v>0.03554469873897016</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07763645812601849</v>
+        <v>0.01911641389788588</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06124288183445042</v>
+        <v>0.02817560727461921</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.08206682750741842</v>
+        <v>0.02614217227723624</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.06818661021948569</v>
+        <v>0.01331227739923851</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0332311667590678</v>
+        <v>0.001858489323326545</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.119780068704456</v>
+        <v>0.004088444184395907</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1036567404006791</v>
+        <v>0.02073799968340145</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.06307629127026827</v>
+        <v>0.003613620115746722</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.07665590360735156</v>
+        <v>0.0201445012997774</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1150219897412333</v>
+        <v>0.03452306891469638</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06164732226229232</v>
+        <v>0.002594449888521737</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.125372058470262</v>
+        <v>0.01512725202697393</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.04432166041481771</v>
+        <v>0.01594313069289949</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.08971670007039109</v>
+        <v>0.03660324422796622</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07209407386239904</v>
+        <v>0.05166264030730522</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.04678406595667694</v>
+        <v>0.01323180428277486</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04292682065201382</v>
+        <v>0.01805413846544707</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.05948767016134335</v>
+        <v>0.007724697042566432</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.05736716213709373</v>
+        <v>0.01517431398031708</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1084036990048159</v>
+        <v>0.01232335939785806</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1025313829903051</v>
+        <v>0.03940148828401188</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.05128905004310398</v>
+        <v>0.001993966647826449</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.08217288929560766</v>
+        <v>0.0167404255317738</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0627490358608977</v>
+        <v>0.002126948119584566</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06576407967675083</v>
+        <v>0.01999474458705948</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.08268241091273619</v>
+        <v>0.01912253642455492</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03691566522604429</v>
+        <v>3.286762557661838e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0539941185767703</v>
+        <v>0.00162455243030223</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08291683482593754</v>
+        <v>0.01306591258849018</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0873236012753326</v>
+        <v>0.02939221390757539</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06712913444514201</v>
+        <v>0.009786910270699067</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.07803597144490679</v>
+        <v>0.008706439081553169</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09278267907847382</v>
+        <v>0.02492249971716637</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.07162149747615143</v>
+        <v>0.002256890310568281</v>
       </c>
     </row>
   </sheetData>
